--- a/Result/07-12-24/S&P500stock_07-12-24period252RS90.xlsx
+++ b/Result/07-12-24/S&P500stock_07-12-24period252RS90.xlsx
@@ -728,18 +728,16 @@
       <c r="AD2" t="n">
         <v>37.16</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AE2" t="inlineStr"/>
+      <c r="AF2" t="n">
         <v>483.33</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AG2" t="n">
         <v>55.56</v>
       </c>
-      <c r="AG2" t="n">
-        <v>-142.52</v>
-      </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2025-02-26</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
@@ -858,18 +856,16 @@
       <c r="AD3" t="n">
         <v>48.48</v>
       </c>
-      <c r="AE3" t="n">
+      <c r="AE3" t="inlineStr"/>
+      <c r="AF3" t="n">
         <v>8.94</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AG3" t="n">
         <v>-1.6</v>
       </c>
-      <c r="AG3" t="n">
-        <v>28.87</v>
-      </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2025-02-13</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
@@ -999,7 +995,7 @@
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2025-02-03</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
@@ -1131,7 +1127,7 @@
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
@@ -1249,17 +1245,17 @@
         <v>11.87</v>
       </c>
       <c r="AE6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF6" t="n">
         <v>-2.23</v>
       </c>
-      <c r="AF6" t="n">
+      <c r="AG6" t="n">
         <v>622.58</v>
       </c>
-      <c r="AG6" t="n">
-        <v>210.71</v>
-      </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2025-02-13</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
@@ -1377,17 +1373,17 @@
         <v>127.21</v>
       </c>
       <c r="AE7" t="n">
+        <v>16.18</v>
+      </c>
+      <c r="AF7" t="n">
         <v>12.58</v>
       </c>
-      <c r="AF7" t="n">
+      <c r="AG7" t="n">
         <v>20.32</v>
       </c>
-      <c r="AG7" t="n">
-        <v>35.68</v>
-      </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2025-02-27</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
@@ -1509,17 +1505,17 @@
         <v>23.48</v>
       </c>
       <c r="AE8" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AF8" t="n">
         <v>-11.11</v>
       </c>
-      <c r="AF8" t="n">
+      <c r="AG8" t="n">
         <v>-6.43</v>
       </c>
-      <c r="AG8" t="n">
-        <v>1087.48</v>
-      </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2025-02-20</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
@@ -1647,7 +1643,7 @@
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2025-02-11</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
@@ -1765,17 +1761,17 @@
         <v>10.21</v>
       </c>
       <c r="AE10" t="n">
+        <v>-2.41</v>
+      </c>
+      <c r="AF10" t="n">
         <v>-25.19</v>
       </c>
-      <c r="AF10" t="n">
+      <c r="AG10" t="n">
         <v>109.52</v>
       </c>
-      <c r="AG10" t="n">
-        <v>0.91</v>
-      </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2025-01-15</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
@@ -1903,7 +1899,7 @@
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
@@ -2021,17 +2017,17 @@
         <v>36.13</v>
       </c>
       <c r="AE12" t="n">
+        <v>16.76</v>
+      </c>
+      <c r="AF12" t="n">
         <v>9.26</v>
       </c>
-      <c r="AF12" t="n">
+      <c r="AG12" t="n">
         <v>-10.83</v>
       </c>
-      <c r="AG12" t="n">
-        <v>21.11</v>
-      </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2025-01-31</t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
@@ -2149,17 +2145,17 @@
         <v>45.4</v>
       </c>
       <c r="AE13" t="n">
+        <v>27.11</v>
+      </c>
+      <c r="AF13" t="n">
         <v>137.14</v>
       </c>
-      <c r="AF13" t="n">
+      <c r="AG13" t="n">
         <v>28.44</v>
       </c>
-      <c r="AG13" t="n">
-        <v>-72.34</v>
-      </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2025-01-30</t>
         </is>
       </c>
       <c r="AI13" t="inlineStr">
@@ -2287,7 +2283,7 @@
       </c>
       <c r="AH14" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2025-02-12</t>
         </is>
       </c>
       <c r="AI14" t="inlineStr">
@@ -2405,17 +2401,17 @@
         <v>8.859999999999999</v>
       </c>
       <c r="AE15" t="n">
+        <v>-1.31</v>
+      </c>
+      <c r="AF15" t="n">
         <v>21.43</v>
       </c>
-      <c r="AF15" t="n">
+      <c r="AG15" t="n">
         <v>500</v>
       </c>
-      <c r="AG15" t="n">
-        <v>-82.93000000000001</v>
-      </c>
       <c r="AH15" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2025-01-15</t>
         </is>
       </c>
       <c r="AI15" t="inlineStr">
@@ -2533,17 +2529,17 @@
         <v>21.91</v>
       </c>
       <c r="AE16" t="n">
+        <v>32.48</v>
+      </c>
+      <c r="AF16" t="n">
         <v>9.029999999999999</v>
       </c>
-      <c r="AF16" t="n">
+      <c r="AG16" t="n">
         <v>-49.12</v>
       </c>
-      <c r="AG16" t="n">
-        <v>111.19</v>
-      </c>
       <c r="AH16" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2025-02-19</t>
         </is>
       </c>
       <c r="AI16" t="inlineStr">
@@ -2557,13 +2553,13 @@
         </is>
       </c>
       <c r="AK16" t="n">
-        <v>7.93</v>
+        <v>7.87</v>
       </c>
       <c r="AL16" t="n">
         <v>7.46</v>
       </c>
       <c r="AM16" t="n">
-        <v>-5.93</v>
+        <v>-5.21</v>
       </c>
       <c r="AN16" t="n">
         <v>32.10544585153406</v>
@@ -2661,17 +2657,17 @@
         <v>33.83</v>
       </c>
       <c r="AE17" t="n">
+        <v>12.26</v>
+      </c>
+      <c r="AF17" t="n">
         <v>3.92</v>
       </c>
-      <c r="AF17" t="n">
+      <c r="AG17" t="n">
         <v>3.03</v>
       </c>
-      <c r="AG17" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AH17" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2025-02-10</t>
         </is>
       </c>
       <c r="AI17" t="inlineStr">
@@ -2789,17 +2785,17 @@
         <v>20.17</v>
       </c>
       <c r="AE18" t="n">
+        <v>-39.11</v>
+      </c>
+      <c r="AF18" t="n">
         <v>450.91</v>
       </c>
-      <c r="AF18" t="n">
+      <c r="AG18" t="n">
         <v>-30.82</v>
       </c>
-      <c r="AG18" t="n">
-        <v>-38.61</v>
-      </c>
       <c r="AH18" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2025-01-15</t>
         </is>
       </c>
       <c r="AI18" t="inlineStr">
@@ -2917,17 +2913,17 @@
         <v>43.57</v>
       </c>
       <c r="AE19" t="n">
+        <v>110.12</v>
+      </c>
+      <c r="AF19" t="n">
         <v>-6.96</v>
       </c>
-      <c r="AF19" t="n">
+      <c r="AG19" t="n">
         <v>-67.88</v>
       </c>
-      <c r="AG19" t="n">
-        <v>121.44</v>
-      </c>
       <c r="AH19" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2025-01-30</t>
         </is>
       </c>
       <c r="AI19" t="inlineStr">
@@ -3045,17 +3041,17 @@
         <v>21.28</v>
       </c>
       <c r="AE20" t="n">
+        <v>25.64</v>
+      </c>
+      <c r="AF20" t="n">
         <v>-50.79</v>
       </c>
-      <c r="AF20" t="n">
+      <c r="AG20" t="n">
         <v>204.81</v>
       </c>
-      <c r="AG20" t="n">
-        <v>-30.2</v>
-      </c>
       <c r="AH20" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2025-01-21</t>
         </is>
       </c>
       <c r="AI20" t="inlineStr">
@@ -3183,7 +3179,7 @@
       </c>
       <c r="AH21" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="AI21" t="inlineStr">
@@ -3301,17 +3297,17 @@
         <v>11.7</v>
       </c>
       <c r="AE22" t="n">
+        <v>73.81</v>
+      </c>
+      <c r="AF22" t="n">
         <v>2.44</v>
       </c>
-      <c r="AF22" t="n">
+      <c r="AG22" t="n">
         <v>-73.55</v>
       </c>
-      <c r="AG22" t="n">
-        <v>150</v>
-      </c>
       <c r="AH22" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2025-02-13</t>
         </is>
       </c>
       <c r="AI22" t="inlineStr">
@@ -3429,17 +3425,17 @@
         <v>35</v>
       </c>
       <c r="AE23" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AF23" t="n">
         <v>73.44</v>
       </c>
-      <c r="AF23" t="n">
+      <c r="AG23" t="n">
         <v>-12.73</v>
       </c>
-      <c r="AG23" t="n">
-        <v>-19.71</v>
-      </c>
       <c r="AH23" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2025-02-02</t>
         </is>
       </c>
       <c r="AI23" t="inlineStr">
@@ -3557,17 +3553,17 @@
         <v>16.48</v>
       </c>
       <c r="AE24" t="n">
+        <v>64.81</v>
+      </c>
+      <c r="AF24" t="n">
         <v>-69.48999999999999</v>
       </c>
-      <c r="AF24" t="n">
-        <v>129.87</v>
-      </c>
       <c r="AG24" t="n">
-        <v>-2.53</v>
+        <v>139.19</v>
       </c>
       <c r="AH24" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2025-02-26</t>
         </is>
       </c>
       <c r="AI24" t="inlineStr">
@@ -3695,7 +3691,7 @@
       </c>
       <c r="AH25" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2025-01-23</t>
         </is>
       </c>
       <c r="AI25" t="inlineStr">
@@ -3709,13 +3705,13 @@
         </is>
       </c>
       <c r="AK25" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="AL25" t="n">
         <v>5.83</v>
       </c>
       <c r="AM25" t="n">
-        <v>101.03</v>
+        <v>99.66</v>
       </c>
       <c r="AN25" t="n">
         <v>21.88259631994985</v>
@@ -3823,7 +3819,7 @@
       </c>
       <c r="AH26" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2024-12-10</t>
         </is>
       </c>
       <c r="AI26" t="inlineStr">
@@ -3941,17 +3937,17 @@
         <v>34.43</v>
       </c>
       <c r="AE27" t="n">
+        <v>-15.87</v>
+      </c>
+      <c r="AF27" t="n">
         <v>24.55</v>
       </c>
-      <c r="AF27" t="n">
+      <c r="AG27" t="n">
         <v>27</v>
       </c>
-      <c r="AG27" t="n">
-        <v>-20.3</v>
-      </c>
       <c r="AH27" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2025-01-24</t>
         </is>
       </c>
       <c r="AI27" t="inlineStr">
@@ -4060,7 +4056,7 @@
         <v>21.34</v>
       </c>
       <c r="AB28" t="n">
-        <v>21.16</v>
+        <v>21.09</v>
       </c>
       <c r="AC28" t="n">
         <v>6.2</v>
@@ -4069,17 +4065,17 @@
         <v>12.42</v>
       </c>
       <c r="AE28" t="n">
+        <v>55.47</v>
+      </c>
+      <c r="AF28" t="n">
         <v>58.02</v>
       </c>
-      <c r="AF28" t="n">
+      <c r="AG28" t="n">
         <v>-44.14</v>
       </c>
-      <c r="AG28" t="n">
-        <v>-22.87</v>
-      </c>
       <c r="AH28" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2025-02-20</t>
         </is>
       </c>
       <c r="AI28" t="inlineStr">
@@ -4102,7 +4098,7 @@
         <v>87.45</v>
       </c>
       <c r="AN28" t="n">
-        <v>17.80968888706289</v>
+        <v>17.7773901119838</v>
       </c>
     </row>
     <row r="29">
@@ -4197,17 +4193,17 @@
         <v>28.42</v>
       </c>
       <c r="AE29" t="n">
+        <v>-11.61</v>
+      </c>
+      <c r="AF29" t="n">
         <v>89.36</v>
       </c>
-      <c r="AF29" t="n">
+      <c r="AG29" t="n">
         <v>-66.81999999999999</v>
       </c>
-      <c r="AG29" t="n">
-        <v>89.73</v>
-      </c>
       <c r="AH29" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2025-02-06</t>
         </is>
       </c>
       <c r="AI29" t="inlineStr">
@@ -4325,17 +4321,17 @@
         <v>20</v>
       </c>
       <c r="AE30" t="n">
+        <v>11.32</v>
+      </c>
+      <c r="AF30" t="n">
         <v>-62.41</v>
       </c>
-      <c r="AF30" t="n">
+      <c r="AG30" t="n">
         <v>239.6</v>
       </c>
-      <c r="AG30" t="n">
-        <v>-318.14</v>
-      </c>
       <c r="AH30" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="AI30" t="inlineStr">
@@ -4463,7 +4459,7 @@
       </c>
       <c r="AH31" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2025-01-23</t>
         </is>
       </c>
       <c r="AI31" t="inlineStr">
